--- a/doc/Air200模块相关文档/Air200射频功耗数据.xlsx
+++ b/doc/Air200模块相关文档/Air200射频功耗数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>TX LEVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,23 +58,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开机后，注册上GSM网络，待机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔1小时连接后台，发送一次数据，然后进入飞行模式，1小时后再醒来发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：所有功耗数据是在Air200开发板上测试，没有点亮任何指示灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态(只是在我们的实验室环境测试，仅供参考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>飞行模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔1小时连接后台，发送一次数据，然后进入飞行模式，1小时后再醒来发送数据</t>
+    <t>开机后，注册上GSM网络，连接一个后台，仅保持连接，不传输数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +105,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -121,8 +141,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -130,15 +165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,323 +460,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
+      <c r="H6">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>81.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>119.1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>273.8</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-    </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
+        <v>81.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
+        <v>119.1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
+        <v>273.8</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>119.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10">
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>273.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>87.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>175.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>374.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>84.2</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>96.3</v>
+        <v>175.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17">
+        <v>374.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
         <v>138.69999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18">
+    <row r="21" spans="1:4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>296.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>87.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>131.30000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>233.6</v>
-      </c>
-    </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23">
         <v>15</v>
       </c>
       <c r="D23">
-        <v>88.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>94.6</v>
+        <v>131.30000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
+        <v>233.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
         <v>116.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26">
+    <row r="29" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>196.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A29"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
